--- a/Data_proglio/Clinical_Goals/organ_kriterier.xlsx
+++ b/Data_proglio/Clinical_Goals/organ_kriterier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="80">
   <si>
     <t>Organ</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>AtMost 50.0 % to 30.0 Gy [%]</t>
+  </si>
+  <si>
+    <t>AtMost 30.0 Gy to 50.0 % [Gy]</t>
   </si>
   <si>
     <t>AtLeast 56.43 Gy to 99.0 % [Gy]</t>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F416"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,10 +645,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -662,10 +665,10 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -682,10 +685,10 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -702,10 +705,10 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -722,10 +725,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -742,10 +745,10 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -762,10 +765,10 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -782,10 +785,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -802,10 +805,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>13</v>
@@ -822,10 +825,10 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -842,10 +845,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -862,10 +865,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -882,10 +885,10 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -902,7 +905,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -919,10 +922,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -939,10 +942,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -959,10 +962,10 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -979,10 +982,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -999,10 +1002,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -1019,10 +1022,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -1039,10 +1042,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1059,10 +1062,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -1079,10 +1082,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -1099,10 +1102,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -1119,10 +1122,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>13</v>
@@ -1139,10 +1142,10 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <v>13</v>
@@ -1159,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -1179,7 +1182,7 @@
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>13</v>
@@ -1196,10 +1199,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>13</v>
@@ -1216,10 +1219,10 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -1236,10 +1239,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>13</v>
@@ -1256,10 +1259,10 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>13</v>
@@ -1276,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>13</v>
@@ -1296,10 +1299,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>13</v>
@@ -1316,10 +1319,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -1336,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -1356,10 +1359,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>13</v>
@@ -1376,10 +1379,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39">
         <v>13</v>
@@ -1396,10 +1399,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40">
         <v>13</v>
@@ -1416,10 +1419,10 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -1436,10 +1439,10 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42">
         <v>13</v>
@@ -1456,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <v>13</v>
@@ -1473,10 +1476,10 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>13</v>
@@ -1493,10 +1496,10 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>13</v>
@@ -1513,10 +1516,10 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E46">
         <v>13</v>
@@ -1533,10 +1536,10 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>13</v>
@@ -1553,10 +1556,10 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48">
         <v>13</v>
@@ -1573,10 +1576,10 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E49">
         <v>13</v>
@@ -1593,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E50">
         <v>13</v>
@@ -1613,10 +1616,10 @@
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>13</v>
@@ -1633,10 +1636,10 @@
         <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <v>13</v>
@@ -1653,10 +1656,10 @@
         <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53">
         <v>13</v>
@@ -1673,10 +1676,10 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <v>13</v>
@@ -1693,10 +1696,10 @@
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55">
         <v>13</v>
@@ -1713,10 +1716,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56">
         <v>13</v>
@@ -1733,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57">
         <v>13</v>
@@ -1750,10 +1753,10 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58">
         <v>13</v>
@@ -1770,10 +1773,10 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E59">
         <v>13</v>
@@ -1790,10 +1793,10 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E60">
         <v>13</v>
@@ -1810,10 +1813,10 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E61">
         <v>13</v>
@@ -1830,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>13</v>
@@ -1850,10 +1853,10 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <v>13</v>
@@ -1870,10 +1873,10 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <v>13</v>
@@ -1890,10 +1893,10 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E65">
         <v>13</v>
@@ -1910,10 +1913,10 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E66">
         <v>13</v>
@@ -1930,10 +1933,10 @@
         <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E67">
         <v>13</v>
@@ -1950,10 +1953,10 @@
         <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E68">
         <v>13</v>
@@ -1970,10 +1973,10 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <v>13</v>
@@ -1990,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70">
         <v>13</v>
@@ -2010,7 +2013,7 @@
         <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <v>13</v>
@@ -2027,10 +2030,10 @@
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>13</v>
@@ -2047,10 +2050,10 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <v>13</v>
@@ -2067,10 +2070,10 @@
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E74">
         <v>13</v>
@@ -2087,10 +2090,10 @@
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E75">
         <v>13</v>
@@ -2107,10 +2110,10 @@
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E76">
         <v>13</v>
@@ -2127,10 +2130,10 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E77">
         <v>13</v>
@@ -2147,10 +2150,10 @@
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E78">
         <v>13</v>
@@ -2167,10 +2170,10 @@
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E79">
         <v>13</v>
@@ -2187,10 +2190,10 @@
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E80">
         <v>13</v>
@@ -2207,10 +2210,10 @@
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E81">
         <v>13</v>
@@ -2227,10 +2230,10 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E82">
         <v>13</v>
@@ -2247,10 +2250,10 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E83">
         <v>13</v>
@@ -2264,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E84">
         <v>13</v>
@@ -2281,10 +2284,10 @@
         <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E85">
         <v>13</v>
@@ -2301,10 +2304,10 @@
         <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E86">
         <v>13</v>
@@ -2321,10 +2324,10 @@
         <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E87">
         <v>13</v>
@@ -2341,10 +2344,10 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E88">
         <v>13</v>
@@ -2361,10 +2364,10 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E89">
         <v>13</v>
@@ -2381,10 +2384,10 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E90">
         <v>13</v>
@@ -2401,10 +2404,10 @@
         <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E91">
         <v>13</v>
@@ -2421,10 +2424,10 @@
         <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E92">
         <v>13</v>
@@ -2441,10 +2444,10 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E93">
         <v>13</v>
@@ -2461,10 +2464,10 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E94">
         <v>13</v>
@@ -2481,10 +2484,10 @@
         <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E95">
         <v>13</v>
@@ -2501,10 +2504,10 @@
         <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E96">
         <v>13</v>
@@ -2518,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E97">
         <v>13</v>
@@ -2535,10 +2538,10 @@
         <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E98">
         <v>13</v>
@@ -2555,10 +2558,10 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E99">
         <v>13</v>
@@ -2575,10 +2578,10 @@
         <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100">
         <v>13</v>
@@ -2595,10 +2598,10 @@
         <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E101">
         <v>13</v>
@@ -2615,10 +2618,10 @@
         <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E102">
         <v>13</v>
@@ -2635,10 +2638,10 @@
         <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E103">
         <v>13</v>
@@ -2655,10 +2658,10 @@
         <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E104">
         <v>13</v>
@@ -2675,10 +2678,10 @@
         <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E105">
         <v>13</v>
@@ -2695,10 +2698,10 @@
         <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E106">
         <v>13</v>
@@ -2715,10 +2718,10 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E107">
         <v>13</v>
@@ -2735,10 +2738,10 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E108">
         <v>13</v>
@@ -2755,10 +2758,10 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E109">
         <v>13</v>
@@ -2775,10 +2778,10 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -2795,7 +2798,7 @@
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E111">
         <v>13</v>
@@ -2812,16 +2815,16 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E112">
         <v>13</v>
       </c>
       <c r="F112">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2832,16 +2835,16 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E113">
         <v>13</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2852,16 +2855,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E114">
         <v>13</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2872,16 +2875,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E115">
         <v>13</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2892,16 +2895,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E116">
         <v>13</v>
       </c>
       <c r="F116">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2912,16 +2915,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E117">
         <v>13</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2932,16 +2935,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E118">
         <v>13</v>
       </c>
       <c r="F118">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2952,16 +2955,16 @@
         <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E119">
         <v>13</v>
       </c>
       <c r="F119">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2972,89 +2975,110 @@
         <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E120">
         <v>13</v>
       </c>
       <c r="F120">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>14</v>
       </c>
+      <c r="B121" t="s">
+        <v>42</v>
+      </c>
       <c r="C121" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D121" t="s">
+        <v>67</v>
       </c>
       <c r="E121">
         <v>13</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>14</v>
       </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
       </c>
       <c r="E122">
         <v>13</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>14</v>
       </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
       </c>
       <c r="E123">
         <v>13</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>14</v>
       </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>70</v>
       </c>
       <c r="E124">
         <v>13</v>
       </c>
       <c r="F124">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
         <v>42</v>
       </c>
-      <c r="C125" t="s">
-        <v>53</v>
-      </c>
       <c r="D125" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125">
         <v>14</v>
@@ -3065,7 +3089,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
         <v>54</v>
@@ -3085,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
         <v>55</v>
@@ -3105,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
@@ -3125,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
         <v>57</v>
@@ -3145,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
         <v>58</v>
@@ -3165,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
         <v>59</v>
@@ -3185,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
         <v>60</v>
@@ -3205,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
         <v>61</v>
@@ -3225,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -3245,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -3265,7 +3289,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
         <v>64</v>
@@ -3285,7 +3309,10 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
       </c>
       <c r="D137" t="s">
         <v>77</v>
@@ -3302,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D138" t="s">
         <v>78</v>
@@ -3316,210 +3343,273 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
-      </c>
-      <c r="C139" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E139">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>16</v>
       </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
       <c r="C140" t="s">
         <v>53</v>
       </c>
+      <c r="D140" t="s">
+        <v>68</v>
+      </c>
       <c r="E140">
         <v>13</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>16</v>
       </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
       <c r="C141" t="s">
         <v>54</v>
       </c>
+      <c r="D141" t="s">
+        <v>67</v>
+      </c>
       <c r="E141">
         <v>13</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>16</v>
       </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
       <c r="C142" t="s">
         <v>55</v>
       </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
       <c r="E142">
         <v>13</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>16</v>
       </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
       <c r="C143" t="s">
         <v>56</v>
       </c>
+      <c r="D143" t="s">
+        <v>70</v>
+      </c>
       <c r="E143">
         <v>13</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>16</v>
       </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
       <c r="C144" t="s">
         <v>57</v>
       </c>
+      <c r="D144" t="s">
+        <v>72</v>
+      </c>
       <c r="E144">
         <v>13</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>16</v>
       </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
       <c r="C145" t="s">
         <v>58</v>
       </c>
+      <c r="D145" t="s">
+        <v>73</v>
+      </c>
       <c r="E145">
         <v>13</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>16</v>
       </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
       <c r="C146" t="s">
         <v>59</v>
       </c>
+      <c r="D146" t="s">
+        <v>74</v>
+      </c>
       <c r="E146">
         <v>13</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>16</v>
       </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
       <c r="C147" t="s">
         <v>60</v>
       </c>
+      <c r="D147" t="s">
+        <v>75</v>
+      </c>
       <c r="E147">
         <v>13</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>16</v>
       </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
       <c r="C148" t="s">
         <v>61</v>
       </c>
+      <c r="D148" t="s">
+        <v>76</v>
+      </c>
       <c r="E148">
         <v>13</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>16</v>
       </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
       <c r="C149" t="s">
         <v>62</v>
       </c>
+      <c r="D149" t="s">
+        <v>77</v>
+      </c>
       <c r="E149">
         <v>13</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>16</v>
       </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
       <c r="C150" t="s">
         <v>63</v>
       </c>
+      <c r="D150" t="s">
+        <v>78</v>
+      </c>
       <c r="E150">
         <v>13</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>16</v>
       </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
       <c r="C151" t="s">
         <v>64</v>
       </c>
+      <c r="D151" t="s">
+        <v>79</v>
+      </c>
       <c r="E151">
         <v>13</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>61</v>
-      </c>
-      <c r="D152" t="s">
         <v>65</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3527,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
         <v>62</v>
@@ -3547,7 +3637,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
@@ -3567,7 +3657,10 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C155" t="s">
+        <v>64</v>
       </c>
       <c r="D155" t="s">
         <v>68</v>
@@ -3584,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D156" t="s">
         <v>69</v>
@@ -3601,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
         <v>70</v>
@@ -3618,7 +3711,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
         <v>71</v>
@@ -3635,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D159" t="s">
         <v>72</v>
@@ -3652,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D160" t="s">
         <v>73</v>
@@ -3669,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
         <v>74</v>
@@ -3686,7 +3779,7 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
         <v>75</v>
@@ -3703,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D163" t="s">
         <v>76</v>
@@ -3720,7 +3813,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D164" t="s">
         <v>77</v>
@@ -3737,7 +3830,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D165" t="s">
         <v>78</v>
@@ -3751,19 +3844,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E166">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F166">
         <v>14</v>
@@ -4016,6 +4106,9 @@
       <c r="B179" t="s">
         <v>39</v>
       </c>
+      <c r="C179" t="s">
+        <v>65</v>
+      </c>
       <c r="D179" t="s">
         <v>78</v>
       </c>
@@ -4028,16 +4121,13 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
       </c>
-      <c r="C180" t="s">
-        <v>52</v>
-      </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E180">
         <v>13</v>
@@ -4293,6 +4383,9 @@
       <c r="B193" t="s">
         <v>39</v>
       </c>
+      <c r="C193" t="s">
+        <v>65</v>
+      </c>
       <c r="D193" t="s">
         <v>78</v>
       </c>
@@ -4305,16 +4398,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
-      </c>
-      <c r="C194" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D194" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E194">
         <v>13</v>
@@ -4328,7 +4418,7 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C195" t="s">
         <v>53</v>
@@ -4348,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C196" t="s">
         <v>54</v>
@@ -4368,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s">
         <v>55</v>
@@ -4388,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C198" t="s">
         <v>56</v>
@@ -4408,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C199" t="s">
         <v>57</v>
@@ -4428,7 +4518,7 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -4448,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C201" t="s">
         <v>59</v>
@@ -4468,7 +4558,7 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C202" t="s">
         <v>60</v>
@@ -4488,7 +4578,7 @@
         <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C203" t="s">
         <v>61</v>
@@ -4508,7 +4598,7 @@
         <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C204" t="s">
         <v>62</v>
@@ -4528,7 +4618,7 @@
         <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -4548,7 +4638,7 @@
         <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
@@ -4568,7 +4658,10 @@
         <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
       </c>
       <c r="D207" t="s">
         <v>78</v>
@@ -4582,16 +4675,13 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B208" t="s">
         <v>45</v>
       </c>
-      <c r="C208" t="s">
-        <v>52</v>
-      </c>
       <c r="D208" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E208">
         <v>13</v>
@@ -4605,7 +4695,7 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C209" t="s">
         <v>53</v>
@@ -4625,7 +4715,7 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C210" t="s">
         <v>54</v>
@@ -4645,7 +4735,7 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C211" t="s">
         <v>55</v>
@@ -4665,7 +4755,7 @@
         <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C212" t="s">
         <v>56</v>
@@ -4685,7 +4775,7 @@
         <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
         <v>57</v>
@@ -4705,7 +4795,7 @@
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
         <v>58</v>
@@ -4725,7 +4815,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C215" t="s">
         <v>59</v>
@@ -4745,7 +4835,7 @@
         <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C216" t="s">
         <v>60</v>
@@ -4765,7 +4855,7 @@
         <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C217" t="s">
         <v>61</v>
@@ -4785,7 +4875,7 @@
         <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C218" t="s">
         <v>62</v>
@@ -4805,7 +4895,7 @@
         <v>21</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C219" t="s">
         <v>63</v>
@@ -4825,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
@@ -4845,7 +4935,10 @@
         <v>21</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C221" t="s">
+        <v>65</v>
       </c>
       <c r="D221" t="s">
         <v>78</v>
@@ -4859,16 +4952,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B222" t="s">
         <v>46</v>
       </c>
-      <c r="C222" t="s">
-        <v>52</v>
-      </c>
       <c r="D222" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E222">
         <v>13</v>
@@ -4882,7 +4972,7 @@
         <v>22</v>
       </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C223" t="s">
         <v>53</v>
@@ -4902,7 +4992,7 @@
         <v>22</v>
       </c>
       <c r="B224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s">
         <v>54</v>
@@ -4922,7 +5012,7 @@
         <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C225" t="s">
         <v>55</v>
@@ -4942,7 +5032,7 @@
         <v>22</v>
       </c>
       <c r="B226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C226" t="s">
         <v>56</v>
@@ -4962,7 +5052,7 @@
         <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C227" t="s">
         <v>57</v>
@@ -4982,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C228" t="s">
         <v>58</v>
@@ -5002,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="B229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C229" t="s">
         <v>59</v>
@@ -5022,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C230" t="s">
         <v>60</v>
@@ -5042,7 +5132,7 @@
         <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C231" t="s">
         <v>61</v>
@@ -5062,7 +5152,7 @@
         <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C232" t="s">
         <v>62</v>
@@ -5082,7 +5172,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C233" t="s">
         <v>63</v>
@@ -5102,7 +5192,7 @@
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C234" t="s">
         <v>64</v>
@@ -5122,7 +5212,10 @@
         <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C235" t="s">
+        <v>65</v>
       </c>
       <c r="D235" t="s">
         <v>78</v>
@@ -5136,16 +5229,13 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>44</v>
-      </c>
-      <c r="C236" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D236" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E236">
         <v>13</v>
@@ -5159,7 +5249,7 @@
         <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C237" t="s">
         <v>53</v>
@@ -5179,7 +5269,7 @@
         <v>23</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C238" t="s">
         <v>54</v>
@@ -5199,7 +5289,7 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s">
         <v>55</v>
@@ -5219,7 +5309,7 @@
         <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C240" t="s">
         <v>56</v>
@@ -5239,7 +5329,7 @@
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C241" t="s">
         <v>57</v>
@@ -5259,7 +5349,7 @@
         <v>23</v>
       </c>
       <c r="B242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C242" t="s">
         <v>58</v>
@@ -5279,7 +5369,7 @@
         <v>23</v>
       </c>
       <c r="B243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C243" t="s">
         <v>59</v>
@@ -5299,7 +5389,7 @@
         <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C244" t="s">
         <v>60</v>
@@ -5319,7 +5409,7 @@
         <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C245" t="s">
         <v>61</v>
@@ -5339,7 +5429,7 @@
         <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C246" t="s">
         <v>62</v>
@@ -5359,7 +5449,7 @@
         <v>23</v>
       </c>
       <c r="B247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s">
         <v>63</v>
@@ -5379,7 +5469,7 @@
         <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C248" t="s">
         <v>64</v>
@@ -5399,7 +5489,10 @@
         <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C249" t="s">
+        <v>65</v>
       </c>
       <c r="D249" t="s">
         <v>78</v>
@@ -5413,16 +5506,13 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B250" t="s">
         <v>45</v>
       </c>
-      <c r="C250" t="s">
-        <v>52</v>
-      </c>
       <c r="D250" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E250">
         <v>13</v>
@@ -5436,7 +5526,7 @@
         <v>24</v>
       </c>
       <c r="B251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C251" t="s">
         <v>53</v>
@@ -5456,7 +5546,7 @@
         <v>24</v>
       </c>
       <c r="B252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C252" t="s">
         <v>54</v>
@@ -5476,7 +5566,7 @@
         <v>24</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C253" t="s">
         <v>55</v>
@@ -5496,7 +5586,7 @@
         <v>24</v>
       </c>
       <c r="B254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C254" t="s">
         <v>56</v>
@@ -5516,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="B255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C255" t="s">
         <v>57</v>
@@ -5536,7 +5626,7 @@
         <v>24</v>
       </c>
       <c r="B256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C256" t="s">
         <v>58</v>
@@ -5556,7 +5646,7 @@
         <v>24</v>
       </c>
       <c r="B257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C257" t="s">
         <v>59</v>
@@ -5576,7 +5666,7 @@
         <v>24</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C258" t="s">
         <v>60</v>
@@ -5596,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="B259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C259" t="s">
         <v>61</v>
@@ -5616,7 +5706,7 @@
         <v>24</v>
       </c>
       <c r="B260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C260" t="s">
         <v>62</v>
@@ -5636,7 +5726,7 @@
         <v>24</v>
       </c>
       <c r="B261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C261" t="s">
         <v>63</v>
@@ -5656,7 +5746,7 @@
         <v>24</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C262" t="s">
         <v>64</v>
@@ -5676,7 +5766,10 @@
         <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C263" t="s">
+        <v>65</v>
       </c>
       <c r="D263" t="s">
         <v>78</v>
@@ -5690,16 +5783,13 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B264" t="s">
         <v>46</v>
       </c>
-      <c r="C264" t="s">
-        <v>52</v>
-      </c>
       <c r="D264" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E264">
         <v>13</v>
@@ -5713,7 +5803,7 @@
         <v>25</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C265" t="s">
         <v>53</v>
@@ -5733,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
         <v>54</v>
@@ -5753,7 +5843,7 @@
         <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C267" t="s">
         <v>55</v>
@@ -5773,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C268" t="s">
         <v>56</v>
@@ -5793,7 +5883,7 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C269" t="s">
         <v>57</v>
@@ -5813,7 +5903,7 @@
         <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C270" t="s">
         <v>58</v>
@@ -5833,7 +5923,7 @@
         <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C271" t="s">
         <v>59</v>
@@ -5853,7 +5943,7 @@
         <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C272" t="s">
         <v>60</v>
@@ -5873,7 +5963,7 @@
         <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C273" t="s">
         <v>61</v>
@@ -5893,7 +5983,7 @@
         <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
         <v>62</v>
@@ -5913,7 +6003,7 @@
         <v>25</v>
       </c>
       <c r="B275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C275" t="s">
         <v>63</v>
@@ -5933,7 +6023,7 @@
         <v>25</v>
       </c>
       <c r="B276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C276" t="s">
         <v>64</v>
@@ -5953,7 +6043,10 @@
         <v>25</v>
       </c>
       <c r="B277" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
       </c>
       <c r="D277" t="s">
         <v>78</v>
@@ -5967,16 +6060,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
-      </c>
-      <c r="C278" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D278" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E278">
         <v>13</v>
@@ -5990,7 +6080,7 @@
         <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -6010,7 +6100,7 @@
         <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C280" t="s">
         <v>54</v>
@@ -6030,7 +6120,7 @@
         <v>26</v>
       </c>
       <c r="B281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C281" t="s">
         <v>55</v>
@@ -6050,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="B282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C282" t="s">
         <v>56</v>
@@ -6070,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C283" t="s">
         <v>57</v>
@@ -6090,7 +6180,7 @@
         <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C284" t="s">
         <v>58</v>
@@ -6110,7 +6200,7 @@
         <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C285" t="s">
         <v>59</v>
@@ -6130,7 +6220,7 @@
         <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C286" t="s">
         <v>60</v>
@@ -6150,7 +6240,7 @@
         <v>26</v>
       </c>
       <c r="B287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C287" t="s">
         <v>61</v>
@@ -6170,7 +6260,7 @@
         <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C288" t="s">
         <v>62</v>
@@ -6190,7 +6280,7 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C289" t="s">
         <v>63</v>
@@ -6210,7 +6300,7 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C290" t="s">
         <v>64</v>
@@ -6230,7 +6320,10 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C291" t="s">
+        <v>65</v>
       </c>
       <c r="D291" t="s">
         <v>78</v>
@@ -6244,19 +6337,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>47</v>
-      </c>
-      <c r="C292" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D292" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E292">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F292">
         <v>14</v>
@@ -6267,10 +6357,10 @@
         <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D293" t="s">
         <v>66</v>
@@ -6287,7 +6377,7 @@
         <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C294" t="s">
         <v>55</v>
@@ -6307,7 +6397,7 @@
         <v>27</v>
       </c>
       <c r="B295" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C295" t="s">
         <v>56</v>
@@ -6327,7 +6417,7 @@
         <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C296" t="s">
         <v>57</v>
@@ -6347,7 +6437,7 @@
         <v>27</v>
       </c>
       <c r="B297" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C297" t="s">
         <v>58</v>
@@ -6367,7 +6457,10 @@
         <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C298" t="s">
+        <v>59</v>
       </c>
       <c r="D298" t="s">
         <v>71</v>
@@ -6384,7 +6477,7 @@
         <v>27</v>
       </c>
       <c r="B299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D299" t="s">
         <v>72</v>
@@ -6401,7 +6494,7 @@
         <v>27</v>
       </c>
       <c r="B300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D300" t="s">
         <v>73</v>
@@ -6418,7 +6511,7 @@
         <v>27</v>
       </c>
       <c r="B301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D301" t="s">
         <v>74</v>
@@ -6435,7 +6528,7 @@
         <v>27</v>
       </c>
       <c r="B302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D302" t="s">
         <v>75</v>
@@ -6452,7 +6545,7 @@
         <v>27</v>
       </c>
       <c r="B303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D303" t="s">
         <v>76</v>
@@ -6469,7 +6562,7 @@
         <v>27</v>
       </c>
       <c r="B304" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D304" t="s">
         <v>77</v>
@@ -6486,7 +6579,7 @@
         <v>27</v>
       </c>
       <c r="B305" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D305" t="s">
         <v>78</v>
@@ -6500,19 +6593,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B306" t="s">
         <v>48</v>
       </c>
-      <c r="C306" t="s">
-        <v>52</v>
-      </c>
       <c r="D306" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E306">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F306">
         <v>14</v>
@@ -6523,7 +6613,7 @@
         <v>28</v>
       </c>
       <c r="B307" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C307" t="s">
         <v>53</v>
@@ -6543,7 +6633,7 @@
         <v>28</v>
       </c>
       <c r="B308" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C308" t="s">
         <v>54</v>
@@ -6563,7 +6653,7 @@
         <v>28</v>
       </c>
       <c r="B309" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C309" t="s">
         <v>55</v>
@@ -6583,7 +6673,7 @@
         <v>28</v>
       </c>
       <c r="B310" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C310" t="s">
         <v>56</v>
@@ -6603,7 +6693,7 @@
         <v>28</v>
       </c>
       <c r="B311" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C311" t="s">
         <v>57</v>
@@ -6623,7 +6713,7 @@
         <v>28</v>
       </c>
       <c r="B312" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C312" t="s">
         <v>58</v>
@@ -6643,7 +6733,7 @@
         <v>28</v>
       </c>
       <c r="B313" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C313" t="s">
         <v>59</v>
@@ -6663,7 +6753,7 @@
         <v>28</v>
       </c>
       <c r="B314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C314" t="s">
         <v>60</v>
@@ -6683,7 +6773,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C315" t="s">
         <v>61</v>
@@ -6703,7 +6793,7 @@
         <v>28</v>
       </c>
       <c r="B316" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C316" t="s">
         <v>62</v>
@@ -6723,7 +6813,7 @@
         <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C317" t="s">
         <v>63</v>
@@ -6743,7 +6833,7 @@
         <v>28</v>
       </c>
       <c r="B318" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C318" t="s">
         <v>64</v>
@@ -6763,7 +6853,10 @@
         <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C319" t="s">
+        <v>65</v>
       </c>
       <c r="D319" t="s">
         <v>78</v>
@@ -6777,16 +6870,13 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B320" t="s">
         <v>49</v>
       </c>
-      <c r="C320" t="s">
-        <v>52</v>
-      </c>
       <c r="D320" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E320">
         <v>13</v>
@@ -6800,7 +6890,7 @@
         <v>29</v>
       </c>
       <c r="B321" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C321" t="s">
         <v>53</v>
@@ -6820,7 +6910,7 @@
         <v>29</v>
       </c>
       <c r="B322" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C322" t="s">
         <v>54</v>
@@ -6840,7 +6930,7 @@
         <v>29</v>
       </c>
       <c r="B323" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C323" t="s">
         <v>55</v>
@@ -6860,7 +6950,7 @@
         <v>29</v>
       </c>
       <c r="B324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C324" t="s">
         <v>56</v>
@@ -6880,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="B325" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C325" t="s">
         <v>57</v>
@@ -6900,7 +6990,7 @@
         <v>29</v>
       </c>
       <c r="B326" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C326" t="s">
         <v>58</v>
@@ -6920,7 +7010,7 @@
         <v>29</v>
       </c>
       <c r="B327" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C327" t="s">
         <v>59</v>
@@ -6940,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C328" t="s">
         <v>60</v>
@@ -6960,7 +7050,7 @@
         <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C329" t="s">
         <v>61</v>
@@ -6980,7 +7070,7 @@
         <v>29</v>
       </c>
       <c r="B330" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C330" t="s">
         <v>62</v>
@@ -7000,7 +7090,7 @@
         <v>29</v>
       </c>
       <c r="B331" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C331" t="s">
         <v>63</v>
@@ -7020,7 +7110,7 @@
         <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C332" t="s">
         <v>64</v>
@@ -7040,7 +7130,10 @@
         <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C333" t="s">
+        <v>65</v>
       </c>
       <c r="D333" t="s">
         <v>78</v>
@@ -7054,16 +7147,13 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>48</v>
-      </c>
-      <c r="C334" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D334" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E334">
         <v>13</v>
@@ -7077,7 +7167,7 @@
         <v>30</v>
       </c>
       <c r="B335" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C335" t="s">
         <v>53</v>
@@ -7097,7 +7187,7 @@
         <v>30</v>
       </c>
       <c r="B336" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C336" t="s">
         <v>54</v>
@@ -7117,7 +7207,7 @@
         <v>30</v>
       </c>
       <c r="B337" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C337" t="s">
         <v>55</v>
@@ -7137,7 +7227,7 @@
         <v>30</v>
       </c>
       <c r="B338" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C338" t="s">
         <v>56</v>
@@ -7157,7 +7247,7 @@
         <v>30</v>
       </c>
       <c r="B339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C339" t="s">
         <v>57</v>
@@ -7177,7 +7267,7 @@
         <v>30</v>
       </c>
       <c r="B340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C340" t="s">
         <v>58</v>
@@ -7197,7 +7287,7 @@
         <v>30</v>
       </c>
       <c r="B341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C341" t="s">
         <v>59</v>
@@ -7217,7 +7307,7 @@
         <v>30</v>
       </c>
       <c r="B342" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C342" t="s">
         <v>60</v>
@@ -7237,7 +7327,7 @@
         <v>30</v>
       </c>
       <c r="B343" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C343" t="s">
         <v>61</v>
@@ -7257,7 +7347,7 @@
         <v>30</v>
       </c>
       <c r="B344" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C344" t="s">
         <v>62</v>
@@ -7277,7 +7367,7 @@
         <v>30</v>
       </c>
       <c r="B345" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C345" t="s">
         <v>63</v>
@@ -7297,7 +7387,7 @@
         <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C346" t="s">
         <v>64</v>
@@ -7317,7 +7407,10 @@
         <v>30</v>
       </c>
       <c r="B347" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C347" t="s">
+        <v>65</v>
       </c>
       <c r="D347" t="s">
         <v>78</v>
@@ -7331,16 +7424,13 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B348" t="s">
         <v>49</v>
       </c>
-      <c r="C348" t="s">
-        <v>52</v>
-      </c>
       <c r="D348" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E348">
         <v>13</v>
@@ -7354,7 +7444,7 @@
         <v>31</v>
       </c>
       <c r="B349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C349" t="s">
         <v>53</v>
@@ -7374,7 +7464,7 @@
         <v>31</v>
       </c>
       <c r="B350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C350" t="s">
         <v>54</v>
@@ -7394,7 +7484,7 @@
         <v>31</v>
       </c>
       <c r="B351" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C351" t="s">
         <v>55</v>
@@ -7414,7 +7504,7 @@
         <v>31</v>
       </c>
       <c r="B352" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C352" t="s">
         <v>56</v>
@@ -7434,7 +7524,7 @@
         <v>31</v>
       </c>
       <c r="B353" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C353" t="s">
         <v>57</v>
@@ -7454,7 +7544,7 @@
         <v>31</v>
       </c>
       <c r="B354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C354" t="s">
         <v>58</v>
@@ -7474,7 +7564,7 @@
         <v>31</v>
       </c>
       <c r="B355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C355" t="s">
         <v>59</v>
@@ -7494,7 +7584,7 @@
         <v>31</v>
       </c>
       <c r="B356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C356" t="s">
         <v>60</v>
@@ -7514,7 +7604,7 @@
         <v>31</v>
       </c>
       <c r="B357" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C357" t="s">
         <v>61</v>
@@ -7534,7 +7624,7 @@
         <v>31</v>
       </c>
       <c r="B358" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C358" t="s">
         <v>62</v>
@@ -7554,7 +7644,7 @@
         <v>31</v>
       </c>
       <c r="B359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C359" t="s">
         <v>63</v>
@@ -7574,7 +7664,7 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C360" t="s">
         <v>64</v>
@@ -7594,7 +7684,10 @@
         <v>31</v>
       </c>
       <c r="B361" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C361" t="s">
+        <v>65</v>
       </c>
       <c r="D361" t="s">
         <v>78</v>
@@ -7608,16 +7701,13 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B362" t="s">
         <v>50</v>
       </c>
-      <c r="C362" t="s">
-        <v>52</v>
-      </c>
       <c r="D362" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E362">
         <v>13</v>
@@ -7631,7 +7721,7 @@
         <v>32</v>
       </c>
       <c r="B363" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C363" t="s">
         <v>53</v>
@@ -7651,7 +7741,7 @@
         <v>32</v>
       </c>
       <c r="B364" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C364" t="s">
         <v>54</v>
@@ -7671,7 +7761,7 @@
         <v>32</v>
       </c>
       <c r="B365" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C365" t="s">
         <v>55</v>
@@ -7691,7 +7781,7 @@
         <v>32</v>
       </c>
       <c r="B366" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C366" t="s">
         <v>56</v>
@@ -7711,7 +7801,7 @@
         <v>32</v>
       </c>
       <c r="B367" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C367" t="s">
         <v>57</v>
@@ -7731,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C368" t="s">
         <v>58</v>
@@ -7751,7 +7841,7 @@
         <v>32</v>
       </c>
       <c r="B369" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C369" t="s">
         <v>59</v>
@@ -7771,7 +7861,7 @@
         <v>32</v>
       </c>
       <c r="B370" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C370" t="s">
         <v>60</v>
@@ -7791,7 +7881,7 @@
         <v>32</v>
       </c>
       <c r="B371" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C371" t="s">
         <v>61</v>
@@ -7811,7 +7901,7 @@
         <v>32</v>
       </c>
       <c r="B372" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C372" t="s">
         <v>62</v>
@@ -7831,7 +7921,7 @@
         <v>32</v>
       </c>
       <c r="B373" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C373" t="s">
         <v>63</v>
@@ -7851,7 +7941,7 @@
         <v>32</v>
       </c>
       <c r="B374" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C374" t="s">
         <v>64</v>
@@ -7871,7 +7961,10 @@
         <v>32</v>
       </c>
       <c r="B375" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C375" t="s">
+        <v>65</v>
       </c>
       <c r="D375" t="s">
         <v>78</v>
@@ -7885,16 +7978,13 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B376" t="s">
-        <v>50</v>
-      </c>
-      <c r="C376" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D376" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E376">
         <v>13</v>
@@ -7908,7 +7998,7 @@
         <v>33</v>
       </c>
       <c r="B377" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C377" t="s">
         <v>53</v>
@@ -7928,7 +8018,7 @@
         <v>33</v>
       </c>
       <c r="B378" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C378" t="s">
         <v>54</v>
@@ -7948,7 +8038,7 @@
         <v>33</v>
       </c>
       <c r="B379" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C379" t="s">
         <v>55</v>
@@ -7968,7 +8058,7 @@
         <v>33</v>
       </c>
       <c r="B380" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C380" t="s">
         <v>56</v>
@@ -7988,7 +8078,7 @@
         <v>33</v>
       </c>
       <c r="B381" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C381" t="s">
         <v>57</v>
@@ -8008,7 +8098,7 @@
         <v>33</v>
       </c>
       <c r="B382" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C382" t="s">
         <v>58</v>
@@ -8028,7 +8118,7 @@
         <v>33</v>
       </c>
       <c r="B383" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C383" t="s">
         <v>59</v>
@@ -8048,7 +8138,7 @@
         <v>33</v>
       </c>
       <c r="B384" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C384" t="s">
         <v>60</v>
@@ -8068,7 +8158,7 @@
         <v>33</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C385" t="s">
         <v>61</v>
@@ -8088,7 +8178,7 @@
         <v>33</v>
       </c>
       <c r="B386" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C386" t="s">
         <v>62</v>
@@ -8108,7 +8198,7 @@
         <v>33</v>
       </c>
       <c r="B387" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C387" t="s">
         <v>63</v>
@@ -8128,7 +8218,7 @@
         <v>33</v>
       </c>
       <c r="B388" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C388" t="s">
         <v>64</v>
@@ -8148,7 +8238,10 @@
         <v>33</v>
       </c>
       <c r="B389" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C389" t="s">
+        <v>65</v>
       </c>
       <c r="D389" t="s">
         <v>78</v>
@@ -8162,16 +8255,13 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B390" t="s">
         <v>51</v>
       </c>
-      <c r="C390" t="s">
-        <v>52</v>
-      </c>
       <c r="D390" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E390">
         <v>13</v>
@@ -8185,7 +8275,7 @@
         <v>34</v>
       </c>
       <c r="B391" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C391" t="s">
         <v>53</v>
@@ -8205,7 +8295,7 @@
         <v>34</v>
       </c>
       <c r="B392" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C392" t="s">
         <v>54</v>
@@ -8225,7 +8315,7 @@
         <v>34</v>
       </c>
       <c r="B393" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C393" t="s">
         <v>55</v>
@@ -8245,7 +8335,7 @@
         <v>34</v>
       </c>
       <c r="B394" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C394" t="s">
         <v>56</v>
@@ -8265,7 +8355,7 @@
         <v>34</v>
       </c>
       <c r="B395" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C395" t="s">
         <v>57</v>
@@ -8285,7 +8375,7 @@
         <v>34</v>
       </c>
       <c r="B396" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C396" t="s">
         <v>58</v>
@@ -8305,7 +8395,7 @@
         <v>34</v>
       </c>
       <c r="B397" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C397" t="s">
         <v>59</v>
@@ -8325,7 +8415,7 @@
         <v>34</v>
       </c>
       <c r="B398" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C398" t="s">
         <v>60</v>
@@ -8345,7 +8435,7 @@
         <v>34</v>
       </c>
       <c r="B399" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C399" t="s">
         <v>61</v>
@@ -8365,7 +8455,7 @@
         <v>34</v>
       </c>
       <c r="B400" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C400" t="s">
         <v>62</v>
@@ -8385,7 +8475,7 @@
         <v>34</v>
       </c>
       <c r="B401" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C401" t="s">
         <v>63</v>
@@ -8405,7 +8495,7 @@
         <v>34</v>
       </c>
       <c r="B402" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C402" t="s">
         <v>64</v>
@@ -8425,7 +8515,10 @@
         <v>34</v>
       </c>
       <c r="B403" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C403" t="s">
+        <v>65</v>
       </c>
       <c r="D403" t="s">
         <v>78</v>
@@ -8439,22 +8532,19 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B404" t="s">
-        <v>51</v>
-      </c>
-      <c r="C404" t="s">
         <v>52</v>
       </c>
       <c r="D404" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E404">
         <v>13</v>
       </c>
       <c r="F404">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8462,7 +8552,7 @@
         <v>35</v>
       </c>
       <c r="B405" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C405" t="s">
         <v>53</v>
@@ -8482,7 +8572,7 @@
         <v>35</v>
       </c>
       <c r="B406" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C406" t="s">
         <v>54</v>
@@ -8502,7 +8592,7 @@
         <v>35</v>
       </c>
       <c r="B407" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C407" t="s">
         <v>55</v>
@@ -8522,7 +8612,7 @@
         <v>35</v>
       </c>
       <c r="B408" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C408" t="s">
         <v>56</v>
@@ -8542,7 +8632,7 @@
         <v>35</v>
       </c>
       <c r="B409" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C409" t="s">
         <v>57</v>
@@ -8562,7 +8652,7 @@
         <v>35</v>
       </c>
       <c r="B410" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C410" t="s">
         <v>58</v>
@@ -8582,7 +8672,7 @@
         <v>35</v>
       </c>
       <c r="B411" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C411" t="s">
         <v>59</v>
@@ -8602,7 +8692,7 @@
         <v>35</v>
       </c>
       <c r="B412" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C412" t="s">
         <v>60</v>
@@ -8622,7 +8712,7 @@
         <v>35</v>
       </c>
       <c r="B413" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C413" t="s">
         <v>61</v>
@@ -8642,7 +8732,7 @@
         <v>35</v>
       </c>
       <c r="B414" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C414" t="s">
         <v>62</v>
@@ -8662,13 +8752,13 @@
         <v>35</v>
       </c>
       <c r="B415" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C415" t="s">
         <v>63</v>
       </c>
       <c r="D415" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E415">
         <v>13</v>
@@ -8682,7 +8772,7 @@
         <v>35</v>
       </c>
       <c r="B416" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C416" t="s">
         <v>64</v>
@@ -8694,6 +8784,26 @@
         <v>13</v>
       </c>
       <c r="F416">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" t="s">
+        <v>52</v>
+      </c>
+      <c r="C417" t="s">
+        <v>65</v>
+      </c>
+      <c r="D417" t="s">
+        <v>79</v>
+      </c>
+      <c r="E417">
+        <v>13</v>
+      </c>
+      <c r="F417">
         <v>13</v>
       </c>
     </row>
